--- a/documentation/tests/test-home-page.xlsx
+++ b/documentation/tests/test-home-page.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="37">
   <si>
     <t xml:space="preserve">Test  ID</t>
   </si>
@@ -140,8 +140,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -320,7 +321,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -421,20 +422,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -577,14 +570,14 @@
   <dimension ref="A1:L1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="20.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="21.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="26.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="17.71"/>
   </cols>
@@ -710,13 +703,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -729,13 +724,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -748,17 +745,19 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
-    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="22.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="22"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -767,17 +766,19 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
     </row>
-    <row r="10" customFormat="false" ht="35.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="23.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
       <c r="B10" s="23"/>
       <c r="C10" s="23"/>
@@ -786,13 +787,15 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
       <c r="K10" s="16"/>
       <c r="L10" s="16"/>
     </row>
@@ -805,55 +808,61 @@
         <v>25</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
       <c r="K11" s="16"/>
       <c r="L11" s="16"/>
     </row>
-    <row r="12" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" s="27" customFormat="true" ht="20.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-    </row>
-    <row r="13" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+    </row>
+    <row r="13" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="26" t="str">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-    </row>
-    <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+    </row>
+    <row r="14" customFormat="false" ht="39.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
         <v>2</v>
       </c>
@@ -861,24 +870,26 @@
         <v>28</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
-    </row>
-    <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" customFormat="false" ht="36.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
         <v>3</v>
       </c>
@@ -886,22 +897,24 @@
         <v>31</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -918,62 +931,62 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="34" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -1038,13 +1051,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
     </row>
@@ -1057,13 +1072,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
     </row>
@@ -1076,13 +1093,15 @@
         <v>22</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -1095,13 +1114,15 @@
         <v>23</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
       <c r="K26" s="16"/>
       <c r="L26" s="16"/>
     </row>
@@ -1114,13 +1135,15 @@
         <v>24</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
       <c r="K27" s="16"/>
       <c r="L27" s="16"/>
     </row>
@@ -1133,55 +1156,61 @@
         <v>25</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
       <c r="K28" s="16"/>
       <c r="L28" s="16"/>
     </row>
-    <row r="29" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="29" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="26" t="str">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="27"/>
-      <c r="L29" s="27"/>
-    </row>
-    <row r="30" s="29" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" s="27" customFormat="true" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="26" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="27"/>
-      <c r="L30" s="27"/>
-    </row>
-    <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" customFormat="false" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
         <v>2</v>
       </c>
@@ -1189,22 +1218,24 @@
         <v>28</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -1214,22 +1245,24 @@
         <v>31</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1373,7 +1406,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I23" activeCellId="0" sqref="I23"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1479,10 +1512,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -1503,13 +1536,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -1522,13 +1557,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -1541,13 +1578,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -1560,15 +1599,17 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
@@ -1579,15 +1620,17 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
@@ -1598,53 +1641,59 @@
         <v>25</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -1654,22 +1703,24 @@
         <v>28</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -1679,22 +1730,24 @@
         <v>31</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -1711,62 +1764,62 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -1807,10 +1860,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="18" t="s">
         <v>17</v>
       </c>
@@ -1831,13 +1884,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
     </row>
@@ -1850,13 +1905,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
     </row>
@@ -1869,13 +1926,15 @@
         <v>22</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -1888,15 +1947,17 @@
         <v>23</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
@@ -1907,15 +1968,17 @@
         <v>24</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
@@ -1926,53 +1989,59 @@
         <v>25</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
@@ -1982,22 +2051,24 @@
         <v>28</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -2007,22 +2078,24 @@
         <v>31</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="118">
@@ -2163,7 +2236,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2270,10 +2343,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -2294,13 +2367,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -2313,13 +2388,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -2332,13 +2409,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -2351,15 +2430,17 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
@@ -2370,15 +2451,17 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
@@ -2389,53 +2472,59 @@
         <v>25</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -2445,22 +2534,24 @@
         <v>28</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -2470,22 +2561,24 @@
         <v>31</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -2502,62 +2595,62 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -2598,10 +2691,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="18" t="s">
         <v>17</v>
       </c>
@@ -2622,13 +2715,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
     </row>
@@ -2641,13 +2736,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
     </row>
@@ -2660,13 +2757,15 @@
         <v>22</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -2679,15 +2778,17 @@
         <v>23</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
@@ -2698,15 +2799,17 @@
         <v>24</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
@@ -2717,53 +2820,59 @@
         <v>25</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
@@ -2773,22 +2882,24 @@
         <v>28</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -2798,22 +2909,24 @@
         <v>31</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="118">
@@ -2954,7 +3067,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="86" zoomScaleNormal="86" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3060,10 +3173,10 @@
         <v>15</v>
       </c>
       <c r="H5" s="20"/>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J5" s="42"/>
+      <c r="J5" s="40"/>
       <c r="K5" s="18" t="s">
         <v>17</v>
       </c>
@@ -3084,13 +3197,15 @@
         <v>20</v>
       </c>
       <c r="F6" s="16"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="26" t="str">
+      <c r="G6" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="25" t="str">
         <f aca="false">IF(G6=E6,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J6" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J6" s="25"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
     </row>
@@ -3103,13 +3218,15 @@
         <v>21</v>
       </c>
       <c r="F7" s="16"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="26" t="str">
+      <c r="G7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="16"/>
+      <c r="I7" s="25" t="str">
         <f aca="false">IF(G7=E7,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J7" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J7" s="25"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
     </row>
@@ -3122,13 +3239,15 @@
         <v>22</v>
       </c>
       <c r="F8" s="16"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26" t="str">
+      <c r="G8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="25" t="str">
         <f aca="false">IF(G8=E8,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J8" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J8" s="25"/>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
     </row>
@@ -3141,15 +3260,17 @@
         <v>23</v>
       </c>
       <c r="F9" s="16"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26" t="str">
+      <c r="G9" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="25" t="str">
         <f aca="false">IF(G9=E9,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J9" s="25"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="29"/>
     </row>
     <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="22"/>
@@ -3160,15 +3281,17 @@
         <v>24</v>
       </c>
       <c r="F10" s="16"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26" t="str">
+      <c r="G10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="25" t="str">
         <f aca="false">IF(G10=E10,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J10" s="26"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
     </row>
     <row r="11" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="22"/>
@@ -3179,53 +3302,59 @@
         <v>25</v>
       </c>
       <c r="F11" s="16"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26" t="str">
+      <c r="G11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="25" t="str">
         <f aca="false">IF(G11=E11,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J11" s="25"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="22"/>
       <c r="B12" s="23"/>
       <c r="C12" s="23"/>
       <c r="D12" s="24"/>
-      <c r="E12" s="27" t="s">
+      <c r="E12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26" t="str">
+      <c r="F12" s="26"/>
+      <c r="G12" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25" t="str">
         <f aca="false">IF(G12=E12,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J12" s="25"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="22"/>
       <c r="B13" s="23"/>
       <c r="C13" s="23"/>
       <c r="D13" s="24"/>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26" t="str">
+      <c r="F13" s="26"/>
+      <c r="G13" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25" t="str">
         <f aca="false">IF(G13=E13,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J13" s="25"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
     </row>
     <row r="14" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="22" t="n">
@@ -3235,22 +3364,24 @@
         <v>28</v>
       </c>
       <c r="C14" s="23"/>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26" t="str">
+      <c r="G14" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H14" s="23"/>
+      <c r="I14" s="25" t="str">
         <f aca="false">IF(G14=E14,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="31"/>
-      <c r="L14" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J14" s="25"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
     </row>
     <row r="15" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="22" t="n">
@@ -3260,22 +3391,24 @@
         <v>31</v>
       </c>
       <c r="C15" s="23"/>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26" t="str">
+      <c r="G15" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" s="23"/>
+      <c r="I15" s="25" t="str">
         <f aca="false">IF(G15=E15,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J15" s="25"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="9"/>
@@ -3292,62 +3425,62 @@
       <c r="L16" s="9"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="32"/>
+      <c r="A17" s="30"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="35" t="s">
+      <c r="B18" s="31"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="H18" s="37"/>
+      <c r="H18" s="35"/>
       <c r="I18" s="6"/>
       <c r="J18" s="7"/>
       <c r="L18" s="9"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="33" t="s">
+      <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="33"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="31"/>
+      <c r="C19" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="35" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="H19" s="38"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="11"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="9"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="33" t="s">
+      <c r="A20" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="33"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="35" t="s">
+      <c r="B20" s="31"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="40"/>
-      <c r="H20" s="41"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="39"/>
       <c r="I20" s="14"/>
       <c r="J20" s="14"/>
       <c r="K20" s="14"/>
@@ -3388,10 +3521,10 @@
         <v>15</v>
       </c>
       <c r="H22" s="20"/>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="J22" s="42"/>
+      <c r="J22" s="40"/>
       <c r="K22" s="18" t="s">
         <v>17</v>
       </c>
@@ -3412,13 +3545,15 @@
         <v>20</v>
       </c>
       <c r="F23" s="16"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="26" t="str">
+      <c r="G23" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="16"/>
+      <c r="I23" s="25" t="str">
         <f aca="false">IF(G23=E23,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J23" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J23" s="25"/>
       <c r="K23" s="16"/>
       <c r="L23" s="16"/>
     </row>
@@ -3431,13 +3566,15 @@
         <v>21</v>
       </c>
       <c r="F24" s="16"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="26" t="str">
+      <c r="G24" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="16"/>
+      <c r="I24" s="25" t="str">
         <f aca="false">IF(G24=E24,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J24" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J24" s="25"/>
       <c r="K24" s="16"/>
       <c r="L24" s="16"/>
     </row>
@@ -3450,13 +3587,15 @@
         <v>22</v>
       </c>
       <c r="F25" s="16"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="26" t="str">
+      <c r="G25" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="16"/>
+      <c r="I25" s="25" t="str">
         <f aca="false">IF(G25=E25,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J25" s="26"/>
+        <v>Pass</v>
+      </c>
+      <c r="J25" s="25"/>
       <c r="K25" s="16"/>
       <c r="L25" s="16"/>
     </row>
@@ -3469,15 +3608,17 @@
         <v>23</v>
       </c>
       <c r="F26" s="16"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="26" t="str">
+      <c r="G26" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="16"/>
+      <c r="I26" s="25" t="str">
         <f aca="false">IF(G26=E26,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J26" s="26"/>
-      <c r="K26" s="31"/>
-      <c r="L26" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J26" s="25"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
     </row>
     <row r="27" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
@@ -3488,15 +3629,17 @@
         <v>24</v>
       </c>
       <c r="F27" s="16"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="26" t="str">
+      <c r="G27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="16"/>
+      <c r="I27" s="25" t="str">
         <f aca="false">IF(G27=E27,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J27" s="26"/>
-      <c r="K27" s="31"/>
-      <c r="L27" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J27" s="25"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
     </row>
     <row r="28" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
@@ -3507,53 +3650,59 @@
         <v>25</v>
       </c>
       <c r="F28" s="16"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26" t="str">
+      <c r="G28" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="16"/>
+      <c r="I28" s="25" t="str">
         <f aca="false">IF(G28=E28,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J28" s="26"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J28" s="25"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
     </row>
     <row r="29" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
       <c r="B29" s="23"/>
       <c r="C29" s="23"/>
       <c r="D29" s="24"/>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="26" t="str">
+      <c r="F29" s="26"/>
+      <c r="G29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="H29" s="26"/>
+      <c r="I29" s="25" t="str">
         <f aca="false">IF(G29=E29,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J29" s="26"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J29" s="25"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
     </row>
     <row r="30" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
       <c r="B30" s="23"/>
       <c r="C30" s="23"/>
       <c r="D30" s="24"/>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="26" t="str">
+      <c r="F30" s="26"/>
+      <c r="G30" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" s="26"/>
+      <c r="I30" s="25" t="str">
         <f aca="false">IF(G30=E30,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J30" s="26"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J30" s="25"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
     </row>
     <row r="31" customFormat="false" ht="48.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="22" t="n">
@@ -3563,22 +3712,24 @@
         <v>28</v>
       </c>
       <c r="C31" s="23"/>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E31" s="23" t="s">
         <v>30</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26" t="str">
+      <c r="G31" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H31" s="23"/>
+      <c r="I31" s="25" t="str">
         <f aca="false">IF(G31=E31,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J31" s="26"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J31" s="25"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
     </row>
     <row r="32" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="22" t="n">
@@ -3588,22 +3739,24 @@
         <v>31</v>
       </c>
       <c r="C32" s="23"/>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="28" t="s">
         <v>32</v>
       </c>
       <c r="E32" s="23" t="s">
         <v>33</v>
       </c>
       <c r="F32" s="23"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26" t="str">
+      <c r="G32" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H32" s="23"/>
+      <c r="I32" s="25" t="str">
         <f aca="false">IF(G32=E32,"Pass","FAIL")</f>
-        <v>FAIL</v>
-      </c>
-      <c r="J32" s="26"/>
-      <c r="K32" s="31"/>
-      <c r="L32" s="31"/>
+        <v>Pass</v>
+      </c>
+      <c r="J32" s="25"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="118">
